--- a/routes/uploads/printtemplates/8_tpcc_order.xlsx
+++ b/routes/uploads/printtemplates/8_tpcc_order.xlsx
@@ -1,36 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwu/WebStormProjects/as1/routes/uploads/printtemplates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gavin/Desktop/as1_2/routes/uploads/printtemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE513923-5020-8D48-A6C8-5DEC3AD3D1DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31100" windowHeight="20360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kaifeng Zhao</author>
+  </authors>
+  <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{EB709219-9310-734B-BB74-25C40624D857}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kaifeng Zhao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{A15E2F2B-B2E2-7C4F-8C8E-E6262FE6C441}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kaifeng Zhao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>Logo</t>
   </si>
@@ -90,14 +149,6 @@
   </si>
   <si>
     <t>${orderorderno}</t>
-  </si>
-  <si>
-    <t>${custname}
-Att: ${custcontact1}
-${custaddress1}, ${custaddress2},
-${custcity}, ${custstate}, ${custpostcode}
-${custcountry}
-${custphone1}</t>
   </si>
   <si>
     <t>Order Date:</t>
@@ -253,14 +304,6 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>${custname}
-Att: ${custcontact2}
-${custshipaddress1}, ${custshipaddress2}
-${custshipcity}, ${custshipstate}, ${custshippostcode}
-${custshipcountry}
-${custphone1}</t>
-  </si>
-  <si>
     <t>${table:product.qty}</t>
   </si>
   <si>
@@ -289,18 +332,36 @@
   </si>
   <si>
     <t>${orderincgst}</t>
+  </si>
+  <si>
+    <t>Att: ${custcontact1}</t>
+  </si>
+  <si>
+    <t>${custaddress1}, ${custaddress2},</t>
+  </si>
+  <si>
+    <t>${custcity}, ${custstate}, ${custpostcode}</t>
+  </si>
+  <si>
+    <t>${custcountry}</t>
+  </si>
+  <si>
+    <t>${custphone1}</t>
+  </si>
+  <si>
+    <t>${custname}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.000_-;\-&quot;$&quot;* #,##0.000_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +445,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -417,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -565,6 +658,223 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -575,7 +885,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -685,7 +995,34 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -718,12 +1055,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -739,59 +1115,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -950,7 +1296,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADF742A9-0365-47D2-8FF7-AD403EC80D86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF742A9-0365-47D2-8FF7-AD403EC80D86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -994,7 +1340,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDE214C0-49F3-4A19-8944-9E16686206FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE214C0-49F3-4A19-8944-9E16686206FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,14 +1665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1361,54 +1707,54 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="1"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
     </row>
     <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
         <v>8</v>
@@ -1416,31 +1762,31 @@
       <c r="N3" s="5"/>
       <c r="O3" s="1"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
     </row>
     <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="42" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
       <c r="O4" s="1"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="1"/>
@@ -1448,20 +1794,20 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1472,17 +1818,17 @@
       <c r="R5" s="2"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="1"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1493,210 +1839,230 @@
       <c r="R6" s="2"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="37" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="37" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="38" t="s">
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
       <c r="R7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
+    <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="56"/>
       <c r="R9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="47"/>
+    <row r="10" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="56"/>
       <c r="R10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="47"/>
+    <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="60"/>
+      <c r="O11" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="56"/>
       <c r="R11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="66"/>
+    <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="64" t="s">
+        <v>81</v>
+      </c>
       <c r="G12" s="67"/>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
       <c r="J12" s="68"/>
-      <c r="K12" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="1" t="s">
+      <c r="K12" s="80" t="s">
         <v>29</v>
       </c>
+      <c r="L12" s="81"/>
+      <c r="M12" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="60"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="48"/>
+    <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="41"/>
       <c r="O13" s="1"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="R13" s="37"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="48" t="s">
+    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="63"/>
+      <c r="M14" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="48"/>
+      <c r="N14" s="60"/>
       <c r="O14" s="1"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="1"/>
@@ -1705,96 +2071,96 @@
     </row>
     <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51" t="s">
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="Q15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="R15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54" t="s">
+      <c r="O16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="13" t="s">
+      <c r="P16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="15" t="s">
+      <c r="S16" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
       <c r="N17" s="23"/>
       <c r="O17" s="19"/>
       <c r="P17" s="20"/>
@@ -1804,115 +2170,115 @@
     </row>
     <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
-      <c r="L18" s="75" t="s">
+      <c r="L18" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="78" t="s">
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="S18" s="80"/>
+      <c r="S18" s="92"/>
     </row>
     <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="29" t="s">
+      <c r="I19" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="83" t="s">
+      <c r="J19" s="95"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="83"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="84" t="s">
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="85" t="s">
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="S19" s="87"/>
+      <c r="S19" s="99"/>
     </row>
     <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
+        <v>42</v>
+      </c>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="83"/>
+      <c r="J20" s="95"/>
       <c r="K20" s="31"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
-      <c r="O20" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="S20" s="87"/>
+      <c r="O20" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="S20" s="99"/>
     </row>
     <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
+        <v>42</v>
+      </c>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
       <c r="H21" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" s="33">
         <v>33134</v>
@@ -1922,123 +2288,123 @@
       <c r="L21" s="30"/>
       <c r="M21" s="34"/>
       <c r="N21" s="35"/>
-      <c r="O21" s="88" t="s">
+      <c r="O21" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" s="90"/>
+      <c r="S21" s="102"/>
     </row>
     <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
+        <v>42</v>
+      </c>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="33">
         <v>227703</v>
       </c>
-      <c r="J22" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
+      <c r="J22" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="102"/>
     </row>
     <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="95" t="s">
+      <c r="J23" s="107"/>
+      <c r="K23" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="95"/>
-      <c r="K23" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="90"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="102"/>
     </row>
     <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="110" t="s">
+      <c r="S24" s="88" t="s">
         <v>67</v>
-      </c>
-      <c r="S24" s="76" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="77"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="89"/>
     </row>
     <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
@@ -2083,25 +2449,25 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="69">
     <mergeCell ref="B28:K28"/>
     <mergeCell ref="N28:S28"/>
     <mergeCell ref="O21:Q23"/>
@@ -2131,21 +2497,31 @@
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:M16"/>
-    <mergeCell ref="A8:E14"/>
-    <mergeCell ref="F8:J14"/>
-    <mergeCell ref="K8:N11"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K8:N10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="O8:Q8"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:Q12"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="K7:M7"/>
@@ -2159,9 +2535,11 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -2170,5 +2548,6 @@
     <oddFooter>&amp;LFor The Paper Cup Company's General Terms and Conditions visit: www.tpccau.com/terms.pdf&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>